--- a/data/professor_info.xlsx
+++ b/data/professor_info.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbswl\PycharmProjects\classschedule\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5CDB35-D338-42D4-92CE-6E41F3533ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>교수ID</t>
   </si>
@@ -34,71 +25,158 @@
     <t>순번</t>
   </si>
   <si>
-    <t>선호시간대</t>
-  </si>
-  <si>
     <t>비고1</t>
   </si>
   <si>
     <t>비고2</t>
   </si>
   <si>
+    <t>비고3</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
     <t>이용훈</t>
   </si>
   <si>
     <t>교수</t>
   </si>
   <si>
+    <t>B002</t>
+  </si>
+  <si>
     <t>이상율</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>B001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>정일효</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>조홍래</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>이동희</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>김준교</t>
+  </si>
+  <si>
+    <t>부교수</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>표준철</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>윤지훈</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>장동훈</t>
+  </si>
+  <si>
+    <t>조교수</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>김상일</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>이미경</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>김영락</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>김유식</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="한양그래픽,한컴돋움"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -108,60 +186,297 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa7a7a7"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -185,80 +500,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -290,20 +547,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -315,7 +568,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -336,16 +589,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,23 +598,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -425,74 +667,1163 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="19">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D10" s="13">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="D13" s="13">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="D14" s="13">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="D15" s="13">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>